--- a/csv_files/2d_20classes_noise_10runs_new/target_vs_output.xlsx
+++ b/csv_files/2d_20classes_noise_10runs_new/target_vs_output.xlsx
@@ -52,7 +52,7 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Std/sqrt(10)</t>
+    <t>Std/sqrt(9)</t>
   </si>
 </sst>
 </file>
@@ -300,58 +300,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0140412147886173</c:v>
+                    <c:v>3.1770784001176029</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>31.365037152146908</c:v>
+                    <c:v>33.061652098861806</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>134.29931744676392</c:v>
+                    <c:v>141.56391044592101</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>218.50173912351357</c:v>
+                    <c:v>230.32105611274207</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>331.71005578835121</c:v>
+                    <c:v>349.65309969090328</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>354.84830092120586</c:v>
+                    <c:v>374.0429515839453</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>369.29136494402655</c:v>
+                    <c:v>389.26727781852782</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>261.49225609948758</c:v>
+                    <c:v>275.63703992347939</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>217.62827890184164</c:v>
+                    <c:v>229.40034819739574</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>160.27901020130838</c:v>
+                    <c:v>168.94891111783241</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>101.99294637920364</c:v>
+                    <c:v>107.51000527656903</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>74.524000608305144</c:v>
+                    <c:v>78.555194090006026</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>55.216382432108603</c:v>
+                    <c:v>58.203177546790272</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>37.56126846751701</c:v>
+                    <c:v>39.593053387472004</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>26.444407096145422</c:v>
+                    <c:v>27.874852598846278</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.126371629176177</c:v>
+                    <c:v>12.782318033947819</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.8627880738111848</c:v>
+                    <c:v>3.0176435905365255</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.37859388972001823</c:v>
+                    <c:v>0.39907299991262163</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -366,58 +366,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0140412147886173</c:v>
+                    <c:v>3.1770784001176029</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>31.365037152146908</c:v>
+                    <c:v>33.061652098861806</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>134.29931744676392</c:v>
+                    <c:v>141.56391044592101</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>218.50173912351357</c:v>
+                    <c:v>230.32105611274207</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>331.71005578835121</c:v>
+                    <c:v>349.65309969090328</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>354.84830092120586</c:v>
+                    <c:v>374.0429515839453</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>369.29136494402655</c:v>
+                    <c:v>389.26727781852782</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>261.49225609948758</c:v>
+                    <c:v>275.63703992347939</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>217.62827890184164</c:v>
+                    <c:v>229.40034819739574</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>160.27901020130838</c:v>
+                    <c:v>168.94891111783241</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>101.99294637920364</c:v>
+                    <c:v>107.51000527656903</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>74.524000608305144</c:v>
+                    <c:v>78.555194090006026</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>55.216382432108603</c:v>
+                    <c:v>58.203177546790272</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>37.56126846751701</c:v>
+                    <c:v>39.593053387472004</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>26.444407096145422</c:v>
+                    <c:v>27.874852598846278</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.126371629176177</c:v>
+                    <c:v>12.782318033947819</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.8627880738111848</c:v>
+                    <c:v>3.0176435905365255</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.37859388972001823</c:v>
+                    <c:v>0.39907299991262163</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -541,64 +541,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>26.310483198548877</c:v>
+                    <c:v>27.733684415668865</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>33.64738689007747</c:v>
+                    <c:v>35.467459961844796</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>50.955685096026109</c:v>
+                    <c:v>53.712008212579406</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>184.68820218355174</c:v>
+                    <c:v>194.67845862056888</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>319.30633411003458</c:v>
+                    <c:v>336.57842903547436</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>391.13599060514429</c:v>
+                    <c:v>412.29353505949234</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>382.89913642707455</c:v>
+                    <c:v>403.61112840703413</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>361.52515583865198</c:v>
+                    <c:v>381.08097463248708</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>335.41274411397677</c:v>
+                    <c:v>353.55607588246727</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>281.05537724246284</c:v>
+                    <c:v>296.25838024134555</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>206.01522341098453</c:v>
+                    <c:v>217.15911288238473</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>151.28455587105003</c:v>
+                    <c:v>159.46792378650554</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>127.16691800307832</c:v>
+                    <c:v>134.04570130453291</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>108.94670334665223</c:v>
+                    <c:v>114.83990871403665</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>57.781310642817886</c:v>
+                    <c:v>60.906849273677473</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>24.58236121948266</c:v>
+                    <c:v>25.912083906186513</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>43.020703891706681</c:v>
+                    <c:v>45.347803613820965</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>24.37909803617417</c:v>
+                    <c:v>25.697825698282799</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>17.970424011395536</c:v>
+                    <c:v>18.942490131663181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>22.370469234816447</c:v>
+                    <c:v>23.580545036248026</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -610,64 +610,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>26.310483198548877</c:v>
+                    <c:v>27.733684415668865</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>33.64738689007747</c:v>
+                    <c:v>35.467459961844796</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>50.955685096026109</c:v>
+                    <c:v>53.712008212579406</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>184.68820218355174</c:v>
+                    <c:v>194.67845862056888</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>319.30633411003458</c:v>
+                    <c:v>336.57842903547436</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>391.13599060514429</c:v>
+                    <c:v>412.29353505949234</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>382.89913642707455</c:v>
+                    <c:v>403.61112840703413</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>361.52515583865198</c:v>
+                    <c:v>381.08097463248708</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>335.41274411397677</c:v>
+                    <c:v>353.55607588246727</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>281.05537724246284</c:v>
+                    <c:v>296.25838024134555</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>206.01522341098453</c:v>
+                    <c:v>217.15911288238473</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>151.28455587105003</c:v>
+                    <c:v>159.46792378650554</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>127.16691800307832</c:v>
+                    <c:v>134.04570130453291</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>108.94670334665223</c:v>
+                    <c:v>114.83990871403665</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>57.781310642817886</c:v>
+                    <c:v>60.906849273677473</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>24.58236121948266</c:v>
+                    <c:v>25.912083906186513</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>43.020703891706681</c:v>
+                    <c:v>45.347803613820965</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>24.37909803617417</c:v>
+                    <c:v>25.697825698282799</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>17.970424011395536</c:v>
+                    <c:v>18.942490131663181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>22.370469234816447</c:v>
+                    <c:v>23.580545036248026</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -770,11 +770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348415552"/>
-        <c:axId val="348410064"/>
+        <c:axId val="360295640"/>
+        <c:axId val="360295248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348415552"/>
+        <c:axId val="360295640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348410064"/>
+        <c:crossAx val="360295248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348410064"/>
+        <c:axId val="360295248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348415552"/>
+        <c:crossAx val="360295640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1712,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>N3/SQRT(10)</f>
+        <f>N3/SQRT(9)</f>
         <v>0</v>
       </c>
     </row>
@@ -2205,8 +2205,8 @@
         <v>9.5312352003528087</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O22" si="3">N4/SQRT(10)</f>
-        <v>3.0140412147886173</v>
+        <f t="shared" ref="O4:O22" si="3">N4/SQRT(9)</f>
+        <v>3.1770784001176029</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>31.365037152146908</v>
+        <v>33.061652098861806</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>134.29931744676392</v>
+        <v>141.56391044592101</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>218.50173912351357</v>
+        <v>230.32105611274207</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>331.71005578835121</v>
+        <v>349.65309969090328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>354.84830092120586</v>
+        <v>374.0429515839453</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>369.29136494402655</v>
+        <v>389.26727781852782</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>261.49225609948758</v>
+        <v>275.63703992347939</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>217.62827890184164</v>
+        <v>229.40034819739574</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>160.27901020130838</v>
+        <v>168.94891111783241</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>101.99294637920364</v>
+        <v>107.51000527656903</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>74.524000608305144</v>
+        <v>78.555194090006026</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>55.216382432108603</v>
+        <v>58.203177546790272</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>37.56126846751701</v>
+        <v>39.593053387472004</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>26.444407096145422</v>
+        <v>27.874852598846278</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>12.126371629176177</v>
+        <v>12.782318033947819</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>2.8627880738111848</v>
+        <v>3.0176435905365255</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>0.37859388972001823</v>
+        <v>0.39907299991262163</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3239,8 +3239,8 @@
         <v>83.201053247006598</v>
       </c>
       <c r="O27">
-        <f>N27/SQRT(10)</f>
-        <v>26.310483198548877</v>
+        <f>N27/SQRT(9)</f>
+        <v>27.733684415668865</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3290,8 +3290,8 @@
         <v>106.40237988553439</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O46" si="7">N28/SQRT(10)</f>
-        <v>33.64738689007747</v>
+        <f t="shared" ref="O28:O46" si="7">N28/SQRT(9)</f>
+        <v>35.467459961844796</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>50.955685096026109</v>
+        <v>53.712008212579406</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>184.68820218355174</v>
+        <v>194.67845862056888</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>319.30633411003458</v>
+        <v>336.57842903547436</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>391.13599060514429</v>
+        <v>412.29353505949234</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>382.89913642707455</v>
+        <v>403.61112840703413</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>361.52515583865198</v>
+        <v>381.08097463248708</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="7"/>
-        <v>335.41274411397677</v>
+        <v>353.55607588246727</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="7"/>
-        <v>281.05537724246284</v>
+        <v>296.25838024134555</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="7"/>
-        <v>206.01522341098453</v>
+        <v>217.15911288238473</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
-        <v>151.28455587105003</v>
+        <v>159.46792378650554</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="7"/>
-        <v>127.16691800307832</v>
+        <v>134.04570130453291</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="7"/>
-        <v>108.94670334665223</v>
+        <v>114.83990871403665</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="7"/>
-        <v>57.781310642817886</v>
+        <v>60.906849273677473</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="7"/>
-        <v>24.58236121948266</v>
+        <v>25.912083906186513</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="7"/>
-        <v>43.020703891706681</v>
+        <v>45.347803613820965</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="7"/>
-        <v>24.37909803617417</v>
+        <v>25.697825698282799</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="7"/>
-        <v>17.970424011395536</v>
+        <v>18.942490131663181</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="7"/>
-        <v>22.370469234816447</v>
+        <v>23.580545036248026</v>
       </c>
     </row>
   </sheetData>

--- a/csv_files/2d_20classes_noise_10runs_new/target_vs_output.xlsx
+++ b/csv_files/2d_20classes_noise_10runs_new/target_vs_output.xlsx
@@ -300,58 +300,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1770784001176029</c:v>
+                    <c:v>1.0027390481371049E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.061652098861806</c:v>
+                    <c:v>1.0434810029939972E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>141.56391044592101</c:v>
+                    <c:v>4.467993638616369E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>230.32105611274207</c:v>
+                    <c:v>7.2693175139736787E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>349.65309969090328</c:v>
+                    <c:v>1.1035636273541956E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>374.0429515839453</c:v>
+                    <c:v>1.180542076707314E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>389.26727781852782</c:v>
+                    <c:v>1.2285925950591079E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>275.63703992347939</c:v>
+                    <c:v>8.6995657089849569E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>229.40034819739574</c:v>
+                    <c:v>7.240258433196433E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>168.94891111783241</c:v>
+                    <c:v>5.3323100340181926E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>107.51000527656903</c:v>
+                    <c:v>3.3931954701606182E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>78.555194090006026</c:v>
+                    <c:v>2.4793332309685024E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>58.203177546790272</c:v>
+                    <c:v>1.8369895703443464E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>39.593053387472004</c:v>
+                    <c:v>1.2496229449397806E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>27.874852598846278</c:v>
+                    <c:v>8.7977694100638422E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.782318033947819</c:v>
+                    <c:v>4.0343132287425261E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.0176435905365255</c:v>
+                    <c:v>9.5241875727071254E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.39907299991262163</c:v>
+                    <c:v>1.2595410930205202E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -366,58 +366,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1770784001176029</c:v>
+                    <c:v>1.0027390481371049E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.061652098861806</c:v>
+                    <c:v>1.0434810029939972E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>141.56391044592101</c:v>
+                    <c:v>4.467993638616369E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>230.32105611274207</c:v>
+                    <c:v>7.2693175139736787E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>349.65309969090328</c:v>
+                    <c:v>1.1035636273541956E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>374.0429515839453</c:v>
+                    <c:v>1.180542076707314E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>389.26727781852782</c:v>
+                    <c:v>1.2285925950591079E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>275.63703992347939</c:v>
+                    <c:v>8.6995657089849569E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>229.40034819739574</c:v>
+                    <c:v>7.240258433196433E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>168.94891111783241</c:v>
+                    <c:v>5.3323100340181926E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>107.51000527656903</c:v>
+                    <c:v>3.3931954701606182E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>78.555194090006026</c:v>
+                    <c:v>2.4793332309685024E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>58.203177546790272</c:v>
+                    <c:v>1.8369895703443464E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>39.593053387472004</c:v>
+                    <c:v>1.2496229449397806E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>27.874852598846278</c:v>
+                    <c:v>8.7977694100638422E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.782318033947819</c:v>
+                    <c:v>4.0343132287425261E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.0176435905365255</c:v>
+                    <c:v>9.5241875727071254E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.39907299991262163</c:v>
+                    <c:v>1.2595410930205202E-5</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -449,58 +449,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122.8</c:v>
+                  <c:v>0.68988764044943818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3813.1</c:v>
+                  <c:v>21.421910112359551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13466.2</c:v>
+                  <c:v>75.65280898876405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23522.1</c:v>
+                  <c:v>132.14662921348315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29316.5</c:v>
+                  <c:v>164.69943820224719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30016.5</c:v>
+                  <c:v>168.63202247191012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26214.7</c:v>
+                  <c:v>147.27359550561798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20601</c:v>
+                  <c:v>115.73595505617978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14546.7</c:v>
+                  <c:v>81.72303370786517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9377.5</c:v>
+                  <c:v>52.682584269662918</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5445.5</c:v>
+                  <c:v>30.592696629213481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2866.4</c:v>
+                  <c:v>16.103370786516855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1417.6</c:v>
+                  <c:v>7.9640449438202241</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>609.4</c:v>
+                  <c:v>3.4235955056179774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.8</c:v>
+                  <c:v>1.3078651685393259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>0.45280898876404491</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.8</c:v>
+                  <c:v>6.6292134831460681E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>6.1797752808988773E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -541,64 +541,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>27.733684415668865</c:v>
+                    <c:v>8.7532143718182251E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>35.467459961844796</c:v>
+                    <c:v>1.119412320472314E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>53.712008212579406</c:v>
+                    <c:v>1.6952407591396103E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>194.67845862056888</c:v>
+                    <c:v>6.144377560300748E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>336.57842903547436</c:v>
+                    <c:v>1.062297781326456E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>412.29353505949234</c:v>
+                    <c:v>1.301267311764589E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>403.61112840703413</c:v>
+                    <c:v>1.2738641850998426E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>381.08097463248708</c:v>
+                    <c:v>1.2027552538583735E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>353.55607588246727</c:v>
+                    <c:v>1.1158820725996315E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>296.25838024134555</c:v>
+                    <c:v>9.3504096781134183E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>217.15911288238473</c:v>
+                    <c:v>6.8539045853549026E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>159.46792378650554</c:v>
+                    <c:v>5.0330742263131403E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>134.04570130453291</c:v>
+                    <c:v>4.230706391381546E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>114.83990871403665</c:v>
+                    <c:v>3.6245394746255732E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>60.906849273677473</c:v>
+                    <c:v>1.9223219692487523E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>25.912083906186513</c:v>
+                    <c:v>8.1782868028615438E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>45.347803613820965</c:v>
+                    <c:v>1.4312524811835932E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>25.697825698282799</c:v>
+                    <c:v>8.1106633311080667E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>18.942490131663181</c:v>
+                    <c:v>5.9785665104352933E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>23.580545036248026</c:v>
+                    <c:v>7.4424141636939857E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -610,64 +610,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>27.733684415668865</c:v>
+                    <c:v>8.7532143718182251E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>35.467459961844796</c:v>
+                    <c:v>1.119412320472314E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>53.712008212579406</c:v>
+                    <c:v>1.6952407591396103E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>194.67845862056888</c:v>
+                    <c:v>6.144377560300748E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>336.57842903547436</c:v>
+                    <c:v>1.062297781326456E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>412.29353505949234</c:v>
+                    <c:v>1.301267311764589E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>403.61112840703413</c:v>
+                    <c:v>1.2738641850998426E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>381.08097463248708</c:v>
+                    <c:v>1.2027552538583735E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>353.55607588246727</c:v>
+                    <c:v>1.1158820725996315E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>296.25838024134555</c:v>
+                    <c:v>9.3504096781134183E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>217.15911288238473</c:v>
+                    <c:v>6.8539045853549026E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>159.46792378650554</c:v>
+                    <c:v>5.0330742263131403E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>134.04570130453291</c:v>
+                    <c:v>4.230706391381546E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>114.83990871403665</c:v>
+                    <c:v>3.6245394746255732E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>60.906849273677473</c:v>
+                    <c:v>1.9223219692487523E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>25.912083906186513</c:v>
+                    <c:v>8.1782868028615438E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>45.347803613820965</c:v>
+                    <c:v>1.4312524811835932E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>25.697825698282799</c:v>
+                    <c:v>8.1106633311080667E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>18.942490131663181</c:v>
+                    <c:v>5.9785665104352933E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>23.580545036248026</c:v>
+                    <c:v>7.4424141636939857E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -693,64 +693,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>28.505499119590894</c:v>
+                  <c:v>0.16014325348084771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.757636049762155</c:v>
+                  <c:v>0.49302042724585482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3651.1194724321313</c:v>
+                  <c:v>20.511907148495119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13064.777889227811</c:v>
+                  <c:v>73.397628591167475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23194.44506039613</c:v>
+                  <c:v>130.30587112582097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29343.927362632625</c:v>
+                  <c:v>164.85352450917205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30126.128520369402</c:v>
+                  <c:v>169.24791303578317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26449.746307253721</c:v>
+                  <c:v>148.5940803778299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20858.526396781122</c:v>
+                  <c:v>117.18273256618608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14661.05752904707</c:v>
+                  <c:v>82.365491736219496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9492.4923685237609</c:v>
+                  <c:v>53.32860881193124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5466.6661121863817</c:v>
+                  <c:v>30.711607371833605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2781.9231080530094</c:v>
+                  <c:v>15.628781505915784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1413.887854336383</c:v>
+                  <c:v>7.943190192901028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>635.1196804023333</c:v>
+                  <c:v>3.5680880921479399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256.85792534994232</c:v>
+                  <c:v>1.4430220525277659</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.682684921659337</c:v>
+                  <c:v>0.3128240725935918</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.909552718885131</c:v>
+                  <c:v>0.17926715010609623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.413346769381288</c:v>
+                  <c:v>9.7827790839220718E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8598379428963945</c:v>
+                  <c:v>5.5392347993799967E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,11 +770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="360295640"/>
-        <c:axId val="360295248"/>
+        <c:axId val="350874760"/>
+        <c:axId val="350875152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360295640"/>
+        <c:axId val="350874760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360295248"/>
+        <c:crossAx val="350875152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360295248"/>
+        <c:axId val="350875152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360295640"/>
+        <c:crossAx val="350874760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1712,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>SUM(B3:K3)</f>
+        <f>SUM(B3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>AVERAGE(B3:K3)</f>
+        <f>AVERAGE(B3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f>STDEV(B3:K3)</f>
+        <f>STDEV(B3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>N3/SQRT(9)</f>
+        <f>N3/SQRT(9)/178</f>
         <v>0</v>
       </c>
     </row>
@@ -2193,20 +2193,20 @@
         <v>130</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L22" si="0">SUM(B4:K4)</f>
-        <v>1228</v>
+        <f t="shared" ref="L4:L22" si="0">SUM(B4:K4)/178</f>
+        <v>6.8988764044943824</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M22" si="1">AVERAGE(B4:K4)</f>
-        <v>122.8</v>
+        <f t="shared" ref="M4:M22" si="1">AVERAGE(B4:K4)/178</f>
+        <v>0.68988764044943818</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)</f>
-        <v>9.5312352003528087</v>
+        <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)/178</f>
+        <v>5.3546265170521398E-2</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O22" si="3">N4/SQRT(9)</f>
-        <v>3.1770784001176029</v>
+        <f t="shared" ref="O4:O22" si="3">N4/SQRT(9)/178</f>
+        <v>1.0027390481371049E-4</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>38131</v>
+        <v>214.21910112359549</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>3813.1</v>
+        <v>21.421910112359551</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>99.184956296585412</v>
+        <v>0.55721885559879447</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>33.061652098861806</v>
+        <v>1.0434810029939972E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2296,19 +2296,19 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>134662</v>
+        <v>756.52808988764048</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>13466.2</v>
+        <v>75.65280898876405</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>424.69173133776303</v>
+        <v>2.3859086030211407</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>141.56391044592101</v>
+        <v>4.467993638616369E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2347,19 +2347,19 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>235221</v>
+        <v>1321.4662921348315</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>23522.1</v>
+        <v>132.14662921348315</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>690.96316833822618</v>
+        <v>3.8818155524619447</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>230.32105611274207</v>
+        <v>7.2693175139736787E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>293165</v>
+        <v>1646.9943820224719</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>29316.5</v>
+        <v>164.69943820224719</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>1048.9592990727099</v>
+        <v>5.8930297700714043</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>349.65309969090328</v>
+        <v>1.1035636273541956E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,19 +2449,19 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>300165</v>
+        <v>1686.3202247191011</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>30016.5</v>
+        <v>168.63202247191012</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>1122.1288547518359</v>
+        <v>6.304094689617056</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>374.0429515839453</v>
+        <v>1.180542076707314E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2500,19 +2500,19 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>262147</v>
+        <v>1472.7359550561798</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>26214.7</v>
+        <v>147.27359550561798</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>1167.8018334555834</v>
+        <v>6.5606844576156371</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>389.26727781852782</v>
+        <v>1.2285925950591079E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2551,19 +2551,19 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>206010</v>
+        <v>1157.3595505617977</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>20601</v>
+        <v>115.73595505617978</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>826.91111977043818</v>
+        <v>4.6455680885979671</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>275.63703992347939</v>
+        <v>8.6995657089849569E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2602,19 +2602,19 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>145467</v>
+        <v>817.2303370786517</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>14546.7</v>
+        <v>81.72303370786517</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>688.20104459218726</v>
+        <v>3.8662980033268948</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>229.40034819739574</v>
+        <v>7.240258433196433E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>93775</v>
+        <v>526.82584269662925</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>9377.5</v>
+        <v>52.682584269662918</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>506.84673335349726</v>
+        <v>2.8474535581657148</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>168.94891111783241</v>
+        <v>5.3323100340181926E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2704,19 +2704,19 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>54455</v>
+        <v>305.92696629213481</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>5445.5</v>
+        <v>30.592696629213481</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>322.53001582970711</v>
+        <v>1.8119663810657702</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>107.51000527656903</v>
+        <v>3.3931954701606182E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2755,19 +2755,19 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>28664</v>
+        <v>161.03370786516854</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>2866.4</v>
+        <v>16.103370786516855</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>235.66558227001809</v>
+        <v>1.3239639453371803</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>78.555194090006026</v>
+        <v>2.4793332309685024E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2806,19 +2806,19 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>14176</v>
+        <v>79.640449438202253</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>1417.6</v>
+        <v>7.9640449438202241</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>174.60953264037082</v>
+        <v>0.98095243056388104</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>58.203177546790272</v>
+        <v>1.8369895703443464E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2857,19 +2857,19 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>6094</v>
+        <v>34.235955056179776</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>609.4</v>
+        <v>3.4235955056179774</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>118.77916016241602</v>
+        <v>0.66729865259784282</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>39.593053387472004</v>
+        <v>1.2496229449397806E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2908,19 +2908,19 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>2328</v>
+        <v>13.078651685393259</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>232.8</v>
+        <v>1.3078651685393259</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>83.624557796538838</v>
+        <v>0.4698008864974092</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>27.874852598846278</v>
+        <v>8.7977694100638422E-4</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2959,19 +2959,19 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>806</v>
+        <v>4.5280898876404496</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>80.599999999999994</v>
+        <v>0.45280898876404491</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>38.346954101843458</v>
+        <v>0.21543232641485088</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>12.782318033947819</v>
+        <v>4.0343132287425261E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3010,19 +3010,19 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>6.6292134831460681E-2</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>9.0529307716095762</v>
+        <v>5.0859161638256045E-2</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>3.0176435905365255</v>
+        <v>9.5241875727071254E-5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3061,19 +3061,19 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6.1797752808988762E-2</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>6.1797752808988773E-3</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>1.1972189997378648</v>
+        <v>6.725949436729578E-3</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>0.39907299991262163</v>
+        <v>1.2595410930205202E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3227,20 +3227,20 @@
         <v>11.0392051618546</v>
       </c>
       <c r="L27" s="1">
-        <f>SUM(B27:K27)</f>
-        <v>285.05499119590894</v>
+        <f>SUM(B27:K27)/178</f>
+        <v>1.6014325348084772</v>
       </c>
       <c r="M27" s="1">
-        <f>AVERAGE(B27:K27)</f>
-        <v>28.505499119590894</v>
+        <f>AVERAGE(B27:K27)/178</f>
+        <v>0.16014325348084771</v>
       </c>
       <c r="N27" s="1">
-        <f>STDEV(B27:K27)</f>
-        <v>83.201053247006598</v>
+        <f>STDEV(B27:K27)/178</f>
+        <v>0.46742164745509324</v>
       </c>
       <c r="O27">
-        <f>N27/SQRT(9)</f>
-        <v>27.733684415668865</v>
+        <f>N27/SQRT(9)/178</f>
+        <v>8.7532143718182251E-4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3278,20 +3278,20 @@
         <v>186.73188123852</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)</f>
-        <v>877.57636049762152</v>
+        <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)/178</f>
+        <v>4.930204272458548</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)</f>
-        <v>87.757636049762155</v>
+        <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)/178</f>
+        <v>0.49302042724585482</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)</f>
-        <v>106.40237988553439</v>
+        <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)/178</f>
+        <v>0.59776617913221564</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O46" si="7">N28/SQRT(9)</f>
-        <v>35.467459961844796</v>
+        <f t="shared" ref="O28:O46" si="7">N28/SQRT(9)/178</f>
+        <v>1.119412320472314E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3330,19 +3330,19 @@
       </c>
       <c r="L29" s="1">
         <f t="shared" si="4"/>
-        <v>36511.194724321314</v>
+        <v>205.11907148495121</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="5"/>
-        <v>3651.1194724321313</v>
+        <v>20.511907148495119</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="6"/>
-        <v>161.13602463773822</v>
+        <v>0.90525856538055183</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>53.712008212579406</v>
+        <v>1.6952407591396103E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3381,19 +3381,19 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" si="4"/>
-        <v>130647.7788922781</v>
+        <v>733.97628591167472</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="5"/>
-        <v>13064.777889227811</v>
+        <v>73.397628591167475</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="6"/>
-        <v>584.0353758617066</v>
+        <v>3.281097617200599</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>194.67845862056888</v>
+        <v>6.144377560300748E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3432,19 +3432,19 @@
       </c>
       <c r="L31" s="1">
         <f t="shared" si="4"/>
-        <v>231944.4506039613</v>
+        <v>1303.0587112582095</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="5"/>
-        <v>23194.44506039613</v>
+        <v>130.30587112582097</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="6"/>
-        <v>1009.735287106423</v>
+        <v>5.672670152283275</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>336.57842903547436</v>
+        <v>1.062297781326456E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3483,19 +3483,19 @@
       </c>
       <c r="L32" s="1">
         <f t="shared" si="4"/>
-        <v>293439.27362632623</v>
+        <v>1648.5352450917205</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="5"/>
-        <v>29343.927362632625</v>
+        <v>164.85352450917205</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="6"/>
-        <v>1236.880605178477</v>
+        <v>6.9487674448229049</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>412.29353505949234</v>
+        <v>1.301267311764589E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3534,19 +3534,19 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" si="4"/>
-        <v>301261.28520369402</v>
+        <v>1692.4791303578315</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="5"/>
-        <v>30126.128520369402</v>
+        <v>169.24791303578317</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="6"/>
-        <v>1210.8333852211024</v>
+        <v>6.8024347484331598</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>403.61112840703413</v>
+        <v>1.2738641850998426E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3585,19 +3585,19 @@
       </c>
       <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>264497.46307253721</v>
+        <v>1485.9408037782989</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="5"/>
-        <v>26449.746307253721</v>
+        <v>148.5940803778299</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="6"/>
-        <v>1143.2429238974612</v>
+        <v>6.4227130556037144</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>381.08097463248708</v>
+        <v>1.2027552538583735E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3636,19 +3636,19 @@
       </c>
       <c r="L35" s="1">
         <f t="shared" si="4"/>
-        <v>208585.26396781122</v>
+        <v>1171.8273256618609</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="5"/>
-        <v>20858.526396781122</v>
+        <v>117.18273256618608</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="6"/>
-        <v>1060.6682276474019</v>
+        <v>5.9588102676820327</v>
       </c>
       <c r="O35">
         <f t="shared" si="7"/>
-        <v>353.55607588246727</v>
+        <v>1.1158820725996315E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3687,19 +3687,19 @@
       </c>
       <c r="L36" s="1">
         <f t="shared" si="4"/>
-        <v>146610.5752904707</v>
+        <v>823.65491736219496</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="5"/>
-        <v>14661.05752904707</v>
+        <v>82.365491736219496</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="6"/>
-        <v>888.77514072403665</v>
+        <v>4.9931187681125655</v>
       </c>
       <c r="O36">
         <f t="shared" si="7"/>
-        <v>296.25838024134555</v>
+        <v>9.3504096781134183E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3738,19 +3738,19 @@
       </c>
       <c r="L37" s="1">
         <f t="shared" si="4"/>
-        <v>94924.923685237605</v>
+        <v>533.28608811931235</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="5"/>
-        <v>9492.4923685237609</v>
+        <v>53.32860881193124</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="6"/>
-        <v>651.47733864715417</v>
+        <v>3.659985048579518</v>
       </c>
       <c r="O37">
         <f t="shared" si="7"/>
-        <v>217.15911288238473</v>
+        <v>6.8539045853549026E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3789,19 +3789,19 @@
       </c>
       <c r="L38" s="1">
         <f t="shared" si="4"/>
-        <v>54666.661121863814</v>
+        <v>307.11607371833605</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="5"/>
-        <v>5466.6661121863817</v>
+        <v>30.711607371833605</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="6"/>
-        <v>478.40377135951661</v>
+        <v>2.687661636851217</v>
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
-        <v>159.46792378650554</v>
+        <v>5.0330742263131403E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3840,19 +3840,19 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" si="4"/>
-        <v>27819.231080530095</v>
+        <v>156.28781505915785</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="5"/>
-        <v>2781.9231080530094</v>
+        <v>15.628781505915784</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>402.13710391359871</v>
+        <v>2.2591972129977456</v>
       </c>
       <c r="O39">
         <f t="shared" si="7"/>
-        <v>134.04570130453291</v>
+        <v>4.230706391381546E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3891,19 +3891,19 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" si="4"/>
-        <v>14138.878543363831</v>
+        <v>79.431901929010294</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="5"/>
-        <v>1413.887854336383</v>
+        <v>7.943190192901028</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="6"/>
-        <v>344.51972614210996</v>
+        <v>1.935504079450056</v>
       </c>
       <c r="O40">
         <f t="shared" si="7"/>
-        <v>114.83990871403665</v>
+        <v>3.6245394746255732E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3942,19 +3942,19 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" si="4"/>
-        <v>6351.1968040233332</v>
+        <v>35.6808809214794</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="5"/>
-        <v>635.1196804023333</v>
+        <v>3.5680880921479399</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="6"/>
-        <v>182.72054782103243</v>
+        <v>1.0265199315788338</v>
       </c>
       <c r="O41">
         <f t="shared" si="7"/>
-        <v>60.906849273677473</v>
+        <v>1.9223219692487523E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -3993,19 +3993,19 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" si="4"/>
-        <v>2568.579253499423</v>
+        <v>14.430220525277656</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="5"/>
-        <v>256.85792534994232</v>
+        <v>1.4430220525277659</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="6"/>
-        <v>77.736251718559544</v>
+        <v>0.43672051527280642</v>
       </c>
       <c r="O42">
         <f t="shared" si="7"/>
-        <v>25.912083906186513</v>
+        <v>8.1782868028615438E-4</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -4044,19 +4044,19 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>556.82684921659336</v>
+        <v>3.128240725935918</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="5"/>
-        <v>55.682684921659337</v>
+        <v>0.3128240725935918</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="6"/>
-        <v>136.0434108414629</v>
+        <v>0.76428882495203876</v>
       </c>
       <c r="O43">
         <f t="shared" si="7"/>
-        <v>45.347803613820965</v>
+        <v>1.4312524811835932E-3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -4095,19 +4095,19 @@
       </c>
       <c r="L44" s="1">
         <f t="shared" si="4"/>
-        <v>319.09552718885129</v>
+        <v>1.7926715010609624</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="5"/>
-        <v>31.909552718885131</v>
+        <v>0.17926715010609623</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="6"/>
-        <v>77.093477094848396</v>
+        <v>0.43310942188117074</v>
       </c>
       <c r="O44">
         <f t="shared" si="7"/>
-        <v>25.697825698282799</v>
+        <v>8.1106633311080667E-4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="L45" s="1">
         <f t="shared" si="4"/>
-        <v>174.13346769381289</v>
+        <v>0.9782779083922073</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="5"/>
-        <v>17.413346769381288</v>
+        <v>9.7827790839220718E-2</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="6"/>
-        <v>56.827470394989547</v>
+        <v>0.31925545165724467</v>
       </c>
       <c r="O45">
         <f t="shared" si="7"/>
-        <v>18.942490131663181</v>
+        <v>5.9785665104352933E-4</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -4197,19 +4197,19 @@
       </c>
       <c r="L46" s="1">
         <f t="shared" si="4"/>
-        <v>98.598379428963952</v>
+        <v>0.55392347993799973</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="5"/>
-        <v>9.8598379428963945</v>
+        <v>5.5392347993799967E-2</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="6"/>
-        <v>70.741635108744077</v>
+        <v>0.39742491634125887</v>
       </c>
       <c r="O46">
         <f t="shared" si="7"/>
-        <v>23.580545036248026</v>
+        <v>7.4424141636939857E-4</v>
       </c>
     </row>
   </sheetData>
